--- a/Header.xlsx
+++ b/Header.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\AsposeCheck2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34EC9D12-0C45-4E3A-A1A9-644FB1FAC0E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEFCDA8-AA66-41F8-9102-4050F9EEC3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Ссылка на файл</t>
   </si>
@@ -37,59 +37,83 @@
     <t>Реквизиты документа, на основании которого была совершенна операция по счету</t>
   </si>
   <si>
-    <t>Реквизиты плательщика/получателя денежных средств</t>
-  </si>
-  <si>
     <t>Сумма операции по счету</t>
   </si>
   <si>
     <t>Назначение платежа</t>
   </si>
   <si>
-    <t>Реквизиты банка плательщика/получателя денежных средств</t>
-  </si>
-  <si>
     <t>вид (шифр) или ВО</t>
   </si>
   <si>
-    <t>номер или номер документа</t>
-  </si>
-  <si>
     <t>Дата совершения операции (dd.mm.yyyy) или дата проводки</t>
   </si>
   <si>
-    <t>наименование/ФИО</t>
-  </si>
-  <si>
-    <t>ИНН/КИО</t>
-  </si>
-  <si>
-    <t>КПП</t>
-  </si>
-  <si>
-    <t>Номер счета</t>
-  </si>
-  <si>
     <t>По дебету</t>
   </si>
   <si>
     <t>По кредиту</t>
   </si>
   <si>
-    <t>номер корреспондентского счета</t>
-  </si>
-  <si>
-    <t>наименование</t>
-  </si>
-  <si>
-    <t>БИК</t>
+    <t>номер документа</t>
+  </si>
+  <si>
+    <t>наименование/ФИО получателя</t>
+  </si>
+  <si>
+    <t>ИНН/КИО получателя</t>
+  </si>
+  <si>
+    <t>КПП получателя</t>
+  </si>
+  <si>
+    <t>Номер счета получателя</t>
+  </si>
+  <si>
+    <t>Реквизиты получателя денежных средств</t>
+  </si>
+  <si>
+    <t>Реквизиты плательщика денежных средств</t>
+  </si>
+  <si>
+    <t>наименование/ФИО плательщика</t>
+  </si>
+  <si>
+    <t>ИНН/КИО плательщика</t>
+  </si>
+  <si>
+    <t>Номер счета плательщика</t>
+  </si>
+  <si>
+    <t>Реквизиты банка плательщика денежных средств</t>
+  </si>
+  <si>
+    <t>БИК плательщика</t>
+  </si>
+  <si>
+    <t>Реквизиты банка получателя денежных средств</t>
+  </si>
+  <si>
+    <t>БИК получателя</t>
+  </si>
+  <si>
+    <t>номер корреспондентского счета  банка плательщика</t>
+  </si>
+  <si>
+    <t>наименование банка плательщика</t>
+  </si>
+  <si>
+    <t>номер корреспондентского счета банка получателя</t>
+  </si>
+  <si>
+    <t>наименование банка получателя</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -113,13 +137,54 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -212,17 +277,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -230,7 +288,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,191 +535,270 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="V2" sqref="V2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="9" t="s">
+      <c r="S1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="5"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="7"/>
+      <c r="H2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>20</v>
-      </c>
+    <row r="3" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+    <row r="4" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="5"/>
+    <row r="5" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+    <row r="6" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:Q1"/>
+  <mergeCells count="11">
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>